--- a/Results/Sentiwordnet/hasil_lex_PRICES.xlsx
+++ b/Results/Sentiwordnet/hasil_lex_PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="204">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,9 @@
     <t>454704:2</t>
   </si>
   <si>
+    <t>475512:3</t>
+  </si>
+  <si>
     <t>490565:4</t>
   </si>
   <si>
@@ -160,9 +163,6 @@
     <t>527109:3</t>
   </si>
   <si>
-    <t>565344:1</t>
-  </si>
-  <si>
     <t>584025:2</t>
   </si>
   <si>
@@ -232,18 +232,12 @@
     <t>TFS#5:30</t>
   </si>
   <si>
-    <t>CLF#3:4</t>
-  </si>
-  <si>
     <t>CLF#3:13</t>
   </si>
   <si>
     <t>CLF#3:23</t>
   </si>
   <si>
-    <t>CLF#3:30</t>
-  </si>
-  <si>
     <t>BG#5:7</t>
   </si>
   <si>
@@ -385,6 +379,9 @@
     <t>this place is not worth the prices.</t>
   </si>
   <si>
+    <t>if you like your music blasted and the system isnt that great and if you want to pay at least 100 dollar bottle minimun then you'll love it here.</t>
+  </si>
+  <si>
     <t>you can get a completely delish martini in a glass (that's about 2 1/2 drinks) for $8.50 (i recommend the vanilla shanty, mmmm!) in a great homey setting with great music.</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>the wine list is extensive and can easily hike up an otherwise reasonably priced meal.</t>
   </si>
   <si>
-    <t>this little place definitely exceeded my expectations and you sure get a lot of food for your money.</t>
-  </si>
-  <si>
     <t>the food is great and they have a good selecion of wines at reasonable prices.</t>
   </si>
   <si>
@@ -478,18 +472,12 @@
     <t>service was just ok, it is not what you'd expect for $500.</t>
   </si>
   <si>
-    <t>i literally just got back home after visiting casa la femme and was so offended by my visit felt it necessary to try and warn other diners who value their money and time.</t>
-  </si>
-  <si>
     <t>however, our $14 drinks were were horrible!</t>
   </si>
   <si>
     <t>i would not expect this for a $55 dinner.</t>
   </si>
   <si>
-    <t>i have never left a restaurant feeling as if i was abused, and wasted my hard earned money.</t>
-  </si>
-  <si>
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
@@ -526,139 +514,112 @@
     <t>beat</t>
   </si>
   <si>
-    <t>well</t>
+    <t>worth|worth|worth</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>reasonable|reasonable</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>welll</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>reasonable|reasonable|reasonable</t>
+  </si>
+  <si>
+    <t>best|best</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>mortal</t>
+  </si>
+  <si>
+    <t>pricey|worth|pricey|worth|worth|worth</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>indian</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>terrific</t>
+  </si>
+  <si>
+    <t>tasteless</t>
+  </si>
+  <si>
+    <t>worth|worth</t>
+  </si>
+  <si>
+    <t>pricey|worth</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>great|pricey</t>
+  </si>
+  <si>
+    <t>overpriced</t>
   </si>
   <si>
     <t>reasonable</t>
   </si>
   <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>overpriced</t>
-  </si>
-  <si>
-    <t>fairly</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>affordable|great|good|affordable</t>
+  </si>
+  <si>
+    <t>pricey</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>plentiful</t>
   </si>
   <si>
     <t>average</t>
   </si>
   <si>
-    <t>priced</t>
-  </si>
-  <si>
-    <t>cramped</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>mortal</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>authentic</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>bargain</t>
-  </si>
-  <si>
-    <t>extensive</t>
-  </si>
-  <si>
-    <t>reasonably</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>pricey</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>exceeded</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>speedy</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>bland</t>
-  </si>
-  <si>
-    <t>told</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>didnt</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>deff</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
   <si>
     <t>horrible</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>complimentary</t>
-  </si>
-  <si>
-    <t>bad</t>
   </si>
   <si>
     <t>positive</t>
@@ -1022,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,16 +1014,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1073,16 +1034,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1093,16 +1054,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1113,16 +1074,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1133,16 +1091,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1153,16 +1111,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1173,16 +1128,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1193,16 +1148,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1213,16 +1165,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1233,16 +1185,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1253,16 +1205,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1273,16 +1225,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1293,16 +1245,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1313,16 +1262,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1333,16 +1282,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1353,16 +1302,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1373,16 +1319,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F18" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1393,16 +1336,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F19" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1413,16 +1356,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1433,16 +1376,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1453,16 +1396,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1473,16 +1416,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1493,16 +1436,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1513,16 +1456,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1533,16 +1473,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1553,16 +1493,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1573,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1593,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1613,16 +1553,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1633,16 +1570,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1653,16 +1590,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1673,16 +1610,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1693,16 +1630,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F34" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1713,16 +1650,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1733,16 +1670,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F36" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1753,16 +1690,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F37" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1773,16 +1710,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1793,16 +1727,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1813,16 +1744,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1833,16 +1764,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1853,16 +1784,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1873,16 +1804,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1893,16 +1824,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1913,16 +1844,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1933,16 +1864,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F46" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1953,16 +1884,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F47" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1973,16 +1904,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1993,16 +1924,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2013,16 +1944,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2033,16 +1964,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2053,16 +1984,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F52" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2073,16 +2001,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F53" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2093,16 +2021,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F54" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2113,16 +2041,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F55" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2133,16 +2058,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F56" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2153,16 +2075,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2173,16 +2092,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2193,16 +2112,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F59" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2213,16 +2129,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F60" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2233,16 +2146,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F61" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2253,16 +2163,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E62" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F62" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2273,16 +2183,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E63" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2293,16 +2203,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E64" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F64" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2313,16 +2223,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F65" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2333,16 +2243,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F66" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2353,16 +2260,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2373,16 +2280,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F68" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2393,16 +2297,13 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
-      </c>
-      <c r="D69" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F69" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2413,16 +2314,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F70" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2433,16 +2331,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F71" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2453,16 +2348,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F72" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2473,16 +2368,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2493,16 +2385,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F74" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2513,16 +2402,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F75" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2533,16 +2422,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F76" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2553,16 +2442,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D77" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E77" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F77" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2573,16 +2462,13 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F78" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2593,16 +2479,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F79" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2613,16 +2499,13 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="E80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2633,56 +2516,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F81" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" t="s">
-        <v>193</v>
-      </c>
-      <c r="E82" t="s">
-        <v>216</v>
-      </c>
-      <c r="F82" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
-      </c>
-      <c r="D83" t="s">
-        <v>195</v>
-      </c>
-      <c r="E83" t="s">
-        <v>216</v>
-      </c>
-      <c r="F83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sentiwordnet/hasil_lex_PRICES.xlsx
+++ b/Results/Sentiwordnet/hasil_lex_PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="218">
   <si>
     <t>id</t>
   </si>
@@ -520,12 +520,21 @@
     <t>worth</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>reasonable|reasonable</t>
   </si>
   <si>
+    <t>large|large</t>
+  </si>
+  <si>
     <t>great|great</t>
   </si>
   <si>
+    <t>plain</t>
+  </si>
+  <si>
     <t>welll</t>
   </si>
   <si>
@@ -538,6 +547,12 @@
     <t>best|best</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>average|average</t>
+  </si>
+  <si>
     <t>high</t>
   </si>
   <si>
@@ -559,7 +574,7 @@
     <t>only</t>
   </si>
   <si>
-    <t>enough</t>
+    <t>enough|good</t>
   </si>
   <si>
     <t>extensive</t>
@@ -577,6 +592,9 @@
     <t>worth|worth</t>
   </si>
   <si>
+    <t>delish</t>
+  </si>
+  <si>
     <t>pricey|worth</t>
   </si>
   <si>
@@ -601,25 +619,49 @@
     <t>pricey</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
     <t>fair</t>
   </si>
   <si>
     <t>plentiful</t>
   </si>
   <si>
-    <t>average</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>complimentary</t>
+  </si>
+  <si>
     <t>deff</t>
   </si>
   <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
     <t>|</t>
   </si>
   <si>
-    <t>horrible</t>
+    <t>horrible|horrible</t>
+  </si>
+  <si>
+    <t>fishy</t>
+  </si>
+  <si>
+    <t>least</t>
   </si>
   <si>
     <t>positive</t>
@@ -1020,10 +1062,10 @@
         <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1040,10 +1082,10 @@
         <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1060,10 +1102,10 @@
         <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1076,11 +1118,14 @@
       <c r="C5" t="s">
         <v>88</v>
       </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1094,13 +1139,13 @@
         <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1113,11 +1158,14 @@
       <c r="C7" t="s">
         <v>90</v>
       </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1131,13 +1179,13 @@
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1150,11 +1198,14 @@
       <c r="C9" t="s">
         <v>92</v>
       </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1168,13 +1219,13 @@
         <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1188,13 +1239,13 @@
         <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1208,13 +1259,13 @@
         <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1228,13 +1279,13 @@
         <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1247,11 +1298,14 @@
       <c r="C14" t="s">
         <v>97</v>
       </c>
+      <c r="D14" t="s">
+        <v>177</v>
+      </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1265,13 +1319,13 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1285,13 +1339,13 @@
         <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F16" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1304,11 +1358,14 @@
       <c r="C17" t="s">
         <v>100</v>
       </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1322,10 +1379,10 @@
         <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1339,13 +1396,13 @@
         <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1359,13 +1416,13 @@
         <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1379,13 +1436,13 @@
         <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1399,13 +1456,13 @@
         <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1419,13 +1476,13 @@
         <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1439,13 +1496,13 @@
         <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1459,10 +1516,10 @@
         <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1476,13 +1533,13 @@
         <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1496,13 +1553,13 @@
         <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1516,13 +1573,13 @@
         <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1536,13 +1593,13 @@
         <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1555,11 +1612,14 @@
       <c r="C30" t="s">
         <v>113</v>
       </c>
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1573,13 +1633,13 @@
         <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1593,13 +1653,13 @@
         <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F32" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1613,13 +1673,13 @@
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1633,13 +1693,13 @@
         <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1653,13 +1713,13 @@
         <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1673,13 +1733,13 @@
         <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F36" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1693,13 +1753,13 @@
         <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F37" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1713,10 +1773,10 @@
         <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F38" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1729,11 +1789,14 @@
       <c r="C39" t="s">
         <v>122</v>
       </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1747,13 +1810,13 @@
         <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1767,13 +1830,13 @@
         <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1787,13 +1850,13 @@
         <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1807,13 +1870,13 @@
         <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F43" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1827,13 +1890,13 @@
         <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F44" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1847,13 +1910,13 @@
         <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1867,13 +1930,13 @@
         <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F46" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1887,13 +1950,13 @@
         <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1907,13 +1970,13 @@
         <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1927,13 +1990,13 @@
         <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1947,13 +2010,13 @@
         <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F50" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1967,13 +2030,13 @@
         <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F51" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1987,10 +2050,10 @@
         <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F52" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2004,13 +2067,13 @@
         <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2024,13 +2087,13 @@
         <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F54" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2044,10 +2107,10 @@
         <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F55" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2060,11 +2123,14 @@
       <c r="C56" t="s">
         <v>139</v>
       </c>
+      <c r="D56" t="s">
+        <v>196</v>
+      </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2077,11 +2143,14 @@
       <c r="C57" t="s">
         <v>140</v>
       </c>
+      <c r="D57" t="s">
+        <v>201</v>
+      </c>
       <c r="E57" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F57" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2095,13 +2164,13 @@
         <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2115,10 +2184,10 @@
         <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2131,11 +2200,14 @@
       <c r="C60" t="s">
         <v>143</v>
       </c>
+      <c r="D60" t="s">
+        <v>202</v>
+      </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2149,10 +2221,10 @@
         <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F61" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2166,13 +2238,13 @@
         <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F62" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2186,13 +2258,13 @@
         <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E63" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F63" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2206,13 +2278,13 @@
         <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E64" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F64" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2226,13 +2298,13 @@
         <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E65" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F65" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2246,10 +2318,10 @@
         <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F66" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2266,10 +2338,10 @@
         <v>167</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F67" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2282,11 +2354,14 @@
       <c r="C68" t="s">
         <v>151</v>
       </c>
+      <c r="D68" t="s">
+        <v>206</v>
+      </c>
       <c r="E68" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2299,11 +2374,14 @@
       <c r="C69" t="s">
         <v>152</v>
       </c>
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F69" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2317,10 +2395,10 @@
         <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F70" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2333,11 +2411,14 @@
       <c r="C71" t="s">
         <v>154</v>
       </c>
+      <c r="D71" t="s">
+        <v>208</v>
+      </c>
       <c r="E71" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2351,13 +2432,13 @@
         <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F72" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2370,11 +2451,14 @@
       <c r="C73" t="s">
         <v>156</v>
       </c>
+      <c r="D73" t="s">
+        <v>210</v>
+      </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2387,11 +2471,14 @@
       <c r="C74" t="s">
         <v>157</v>
       </c>
+      <c r="D74" t="s">
+        <v>211</v>
+      </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F74" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2405,13 +2492,13 @@
         <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F75" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2425,13 +2512,13 @@
         <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F76" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2445,13 +2532,13 @@
         <v>160</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E77" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F77" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2464,11 +2551,14 @@
       <c r="C78" t="s">
         <v>161</v>
       </c>
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
       <c r="E78" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F78" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2482,13 +2572,13 @@
         <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F79" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2501,11 +2591,14 @@
       <c r="C80" t="s">
         <v>163</v>
       </c>
+      <c r="D80" t="s">
+        <v>215</v>
+      </c>
       <c r="E80" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F80" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2519,13 +2612,13 @@
         <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F81" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
